--- a/new/Test1.xlsx
+++ b/new/Test1.xlsx
@@ -28340,7 +28340,7 @@
   <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:A2"/>
+      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:C91"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
